--- a/BattleNoid_V2/Assets/Resources/Excel/PerkData.xlsx
+++ b/BattleNoid_V2/Assets/Resources/Excel/PerkData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shh02\Vampire\BattleNoid_V2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26583ABC-E61E-47A5-AE31-73A17ABAC63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5876C0-7BEE-496D-8A65-75DDFD107CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,10 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>isReplicable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>taskCondition</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,6 +103,10 @@
   </si>
   <si>
     <t>1.2*,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isReplicatable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,7 +435,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -458,7 +458,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -467,19 +467,19 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -487,16 +487,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -505,13 +505,13 @@
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -519,16 +519,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -537,13 +537,13 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
